--- a/budget.xlsx
+++ b/budget.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Burhan\Documents\RS_Group_PPT\CASA0023-Group-presentation-Jakarta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Burhan\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1253AAAB-90B8-4366-A135-11FE8B58DE37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D02A6E-0DF7-4334-8281-E7871897B2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="24" yWindow="24" windowWidth="23016" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
   <si>
     <t>Role</t>
   </si>
@@ -98,15 +98,9 @@
     <t>£ 20,000</t>
   </si>
   <si>
-    <t>£ 81,600</t>
-  </si>
-  <si>
     <t>£ 30,000</t>
   </si>
   <si>
-    <t>Total Expenditure</t>
-  </si>
-  <si>
     <t>Salary/Month (IDR)</t>
   </si>
   <si>
@@ -119,12 +113,6 @@
     <t>(D) Extingencies (5% of A+B+C )</t>
   </si>
   <si>
-    <t>£ 7,580</t>
-  </si>
-  <si>
-    <t>£ 159,180</t>
-  </si>
-  <si>
     <t>(A) Total Salary  Cost for Project</t>
   </si>
   <si>
@@ -132,6 +120,39 @@
   </si>
   <si>
     <t>(C) Stakeholder Engagement Cost for Project</t>
+  </si>
+  <si>
+    <t>Geologist</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> £ 30000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> £ 18000</t>
+  </si>
+  <si>
+    <t>£ 12000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> £ 12000</t>
+  </si>
+  <si>
+    <t>£ 9600</t>
+  </si>
+  <si>
+    <t>GO</t>
+  </si>
+  <si>
+    <t>£ 93,600</t>
+  </si>
+  <si>
+    <t>£ 7,180</t>
+  </si>
+  <si>
+    <t>Total Expenditure (A+B+C+D)</t>
+  </si>
+  <si>
+    <t>£ 150,780</t>
   </si>
 </sst>
 </file>
@@ -141,9 +162,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -261,77 +289,86 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -672,22 +709,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.59765625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="13.59765625" style="10" customWidth="1"/>
     <col min="2" max="2" width="7.5" customWidth="1"/>
     <col min="3" max="3" width="12.3984375" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.296875" style="1" customWidth="1"/>
     <col min="5" max="5" width="8.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -695,17 +732,17 @@
         <v>11</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -714,16 +751,15 @@
       <c r="C2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="7">
-        <f>2500*12</f>
-        <v>30000</v>
+      <c r="E2" s="16" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
@@ -735,13 +771,12 @@
       <c r="D3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="7">
-        <f>1500*12</f>
-        <v>18000</v>
+      <c r="E3" s="16" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -753,13 +788,12 @@
       <c r="D4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="7">
-        <f>1000*12</f>
-        <v>12000</v>
+      <c r="E4" s="16" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -771,90 +805,105 @@
       <c r="D5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="7">
-        <f>1000*12</f>
-        <v>12000</v>
+      <c r="E5" s="16" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="5">
-        <f>800*12</f>
-        <v>9600</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="9" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="11" t="s">
-        <v>29</v>
+    <row r="11" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="19" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A8:D8"/>
     <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A7:D7"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A9:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
